--- a/output/inhaltsverzeichnis/csv/interpreting_raw_csv - Kopie.xlsx
+++ b/output/inhaltsverzeichnis/csv/interpreting_raw_csv - Kopie.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="raw_csv" localSheetId="0">Tabelle1!$A$1:$D$162</definedName>
+    <definedName name="raw_csv" localSheetId="0">Tabelle1!$A$1:$D$189</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -19,7 +19,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="raw_csv" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="C:\Users\P-Simon\Documents\SVR\output\inhaltsverzeichnis\csv\test.txt" decimal="," thousands="." tab="0" comma="1">
+    <textPr codePage="65001" sourceFile="C:\Users\P-Simon\Documents\SVR\output\inhaltsverzeichnis\csv\18_19_merged_csv.txt" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="187">
   <si>
     <t>Überschrift Erste/Kapitelebene</t>
   </si>
@@ -46,472 +46,553 @@
     <t>Seitenzahl</t>
   </si>
   <si>
-    <t>ERSTES KAPITEL Die Finanzkrise meistern, Wachstumskräfte stärken</t>
-  </si>
-  <si>
-    <t>Systemische Bankenkrise konnte gestoppt werden</t>
-  </si>
-  <si>
-    <t>Erhebliche realwirtschaftliche Folgen, aber keine extremen Entwicklungen zu erwarten</t>
-  </si>
-  <si>
-    <t>Verantwortlichkeiten für die Finanzkrise</t>
-  </si>
-  <si>
-    <t>III. Die deutsche Konjunktur im Abschwung</t>
-  </si>
-  <si>
-    <t>IV. Wirtschaftspolitik: Was zu tun ist</t>
-  </si>
-  <si>
-    <t>1. Konjunkturgerechte Wachstumspolitik für Deutschland</t>
-  </si>
-  <si>
-    <t>2. Rahmenbedingungen für Wachstum und Beschäftigung verbessern</t>
-  </si>
-  <si>
-    <t>Finanzpolitik: Verzerrungen abbauen</t>
-  </si>
-  <si>
-    <t>Arbeitsmarktpolitik: Sockelarbeitslosigkeit weiter senken</t>
-  </si>
-  <si>
-    <t>Nachhaltige Sozialpolitik</t>
-  </si>
-  <si>
-    <t>ZWEITES KAPITEL Die wirtschaftliche Lage und Entwicklung in der Welt und in Deutschland</t>
-  </si>
-  <si>
-    <t>1. Bestimmungsfaktoren der weltwirtschaftlichen Entwicklung</t>
-  </si>
-  <si>
-    <t>Realwirtschaftliche Folgen der Finanzkrise</t>
-  </si>
-  <si>
-    <t>Platzende Immobilienpreisblasen</t>
-  </si>
-  <si>
-    <t>Ausmaß der Überbewertung am Immobilienmarkt</t>
-  </si>
-  <si>
-    <t>Ausmaß direkter Nachfrageeffekte</t>
-  </si>
-  <si>
-    <t>Ausmaß indirekter Effekte auf die Nachfrage</t>
-  </si>
-  <si>
-    <t>Wachstumseinbußen infolge von Immobilienkrisen</t>
-  </si>
-  <si>
-    <t>Entwicklung der Rohstoffpreise</t>
-  </si>
-  <si>
-    <t>Ursachen für die Rohstoffpreisanstiege der letzten Jahre</t>
-  </si>
-  <si>
-    <t>Fundamentale Faktoren</t>
-  </si>
-  <si>
-    <t>Spekulative Faktoren</t>
-  </si>
-  <si>
-    <t>Der Rückgang des Ölpreises seit Jahresmitte</t>
-  </si>
-  <si>
-    <t>Die Weltwirtschaft im Jahr 2009</t>
-  </si>
-  <si>
-    <t>2. Vereinigte Staaten: Expansive Wirtschaftspolitik im Zeichen der Finanzkrise</t>
-  </si>
-  <si>
-    <t>Konjunkturentwicklung im Jahr 2008</t>
-  </si>
-  <si>
-    <t>Voraussichtliche Entwicklung im Jahr 2009: Anhaltender Abschwung</t>
-  </si>
-  <si>
-    <t>3. Japan: Globale Konjunkturschwäche belastet japanische Exporte</t>
-  </si>
-  <si>
-    <t>Voraussichtliche Entwicklung im Jahr 2009</t>
-  </si>
-  <si>
-    <t>4. Schwellenländer: Keine Entkopplung</t>
-  </si>
-  <si>
-    <t>China: Verhaltene konjunkturelle Entwicklung im Jahr 2008</t>
-  </si>
-  <si>
-    <t>5. Europäische Union: Abrupte Abkühlung</t>
-  </si>
-  <si>
-    <t>Euro-Raum: Konjunktur verliert an Schwung</t>
-  </si>
-  <si>
-    <t>Geldpolitik zwischen Konjunktur- und Preisrisiken</t>
-  </si>
-  <si>
-    <t>Starke Auf- und Abwertung des Außenwerts des Euro im Zuge der Finanzkrise</t>
-  </si>
-  <si>
-    <t>Eintrübung der Konjunktur in den übrigen Staaten der Europäischen Union</t>
-  </si>
-  <si>
-    <t>1. Konjunktureller Abschwung nach imposantem Jahresbeginn 2008</t>
-  </si>
-  <si>
-    <t>Rückläufige Output-Lücke im Jahr 2008</t>
-  </si>
-  <si>
-    <t>Preisschub dämpft Konsum</t>
-  </si>
-  <si>
-    <t>Privater Konsum: Erhoffte Erholung blieb aus</t>
-  </si>
-  <si>
-    <t>Staatskonsum: Stabilisator in der Konjunkturabschwächung</t>
-  </si>
-  <si>
-    <t>Ausrüstungsinvestitionen: Der Aufschwung ist zu Ende</t>
-  </si>
-  <si>
-    <t>Verhaltene Entwicklung in der Bauwirtschaft</t>
-  </si>
-  <si>
-    <t>Außenwirtschaft: Nachlassende Impulse</t>
-  </si>
-  <si>
-    <t>Entstehungsseite: Produktionsdynamik in der Industrie schwächt sich ab</t>
-  </si>
-  <si>
-    <t>2. Die voraussichtliche Entwicklung im Jahr 2009: Deutschland in der Rezession</t>
-  </si>
-  <si>
-    <t>Risiken der Prognose</t>
-  </si>
-  <si>
-    <t>Die Entwicklung der Nachfragekomponenten im Einzelnen</t>
-  </si>
-  <si>
-    <t>Arbeitsmarkt: Beschäftigungsabbau und Anstieg der Arbeitslosigkeit</t>
-  </si>
-  <si>
-    <t>Öffentliche Finanzen: Öffentliche Haushalte in turbulenten Zeiten</t>
-  </si>
-  <si>
-    <t>DRITTES KAPITEL Finanzsystem auf der Intensivstation</t>
-  </si>
-  <si>
-    <t>1. Zur Genesis der Krise</t>
-  </si>
-  <si>
-    <t>2. Die Fehleinschätzung der US- Behörden im Fall von Lehman Brothers</t>
-  </si>
-  <si>
-    <t>3. Der US-amerikanische Immobilienmarkt findet keinen Boden</t>
-  </si>
-  <si>
-    <t>4. Negative Selbstverstärkung durch „Deleveraging“</t>
-  </si>
-  <si>
-    <t>5. Zunehmendes Misstrauen verschlechtert Ertragslage</t>
-  </si>
-  <si>
-    <t>1. Zentralbankpolitische Maßnahmen zur Bewältigung der Krise</t>
-  </si>
-  <si>
-    <t>Federal Reserve</t>
-  </si>
-  <si>
-    <t>Europäische Zentralbank</t>
-  </si>
-  <si>
-    <t>2. Effektivität der ergriffenen Maßnahmen</t>
-  </si>
-  <si>
-    <t>3. Grenzen des zentralbankpolitischen Krisenmanagements</t>
-  </si>
-  <si>
-    <t>III. Systemische Bankenkrisen: Ursachen und Lösungsansätze</t>
-  </si>
-  <si>
-    <t>1. Liquiditäts- und Solvenzprobleme als Ursachen einer systemischen Krise</t>
-  </si>
-  <si>
-    <t>2. Elemente staatlicher Rettungsprogramme</t>
-  </si>
-  <si>
-    <t>Lockerung bilanzieller oder bankaufsichtsrechtlicher Vorgaben (Regulatory Forbearance)</t>
-  </si>
-  <si>
-    <t>Übertragung problembehafteter Aktiva auf einen zentralen Fonds (Asset Management Company)</t>
-  </si>
-  <si>
-    <t>Eigenkapitalzuführung durch den Staat</t>
-  </si>
-  <si>
-    <t>Triage durch eine zentrale Institution</t>
-  </si>
-  <si>
-    <t>3. Staatliche Rettungsprogramme in der aktuellen Finanzkrise</t>
-  </si>
-  <si>
-    <t>Die Abkehr von fallweisen Lösungen</t>
-  </si>
-  <si>
-    <t>Das deutsche Rettungspaket</t>
-  </si>
-  <si>
-    <t>Rekapitalisierung der Banken: Die Rolle des Staates</t>
-  </si>
-  <si>
-    <t>Selektive staatliche Garantien für Bankverbindlichkeiten</t>
-  </si>
-  <si>
-    <t>Der Ankauf risikobehafteter Wertpapiere durch den SoFFin</t>
-  </si>
-  <si>
-    <t>Eine vorläufige Bewertung</t>
-  </si>
-  <si>
-    <t>IV. Von der Krisenbewältigung zur Krisenprävention</t>
-  </si>
-  <si>
-    <t>1. Nicht nur der Markt, auch der Staat hat versagt</t>
-  </si>
-  <si>
-    <t>2. Ansatzpunkte für eine stabilere globale Finanzmarktarchitektur</t>
-  </si>
-  <si>
-    <t>Blinde Flecken bei der Aufsicht des Finanzsystems</t>
-  </si>
-  <si>
-    <t>Zu geringe Risikopuffer und zunehmende Prozyklizität</t>
-  </si>
-  <si>
-    <t>Ansätze für eine Reform der internationalen Finanzarchitektur</t>
-  </si>
-  <si>
-    <t>3. Institutionelle Reformen: Stärkung der internationalen Aufsicht</t>
-  </si>
-  <si>
-    <t>Lösungsansätze auf der globalen Ebene</t>
-  </si>
-  <si>
-    <t>Mögliche Funktionsbereiche einer internationalen Aufsicht</t>
-  </si>
-  <si>
-    <t>Institutionelle Struktur</t>
-  </si>
-  <si>
-    <t>Lösungsansätze auf der europäischen Ebene</t>
-  </si>
-  <si>
-    <t>4. Inhaltliche Reformen: Verringerung der Prozyklizität des Finanzsystems</t>
-  </si>
-  <si>
-    <t>Eigenkapitalregulierung</t>
-  </si>
-  <si>
-    <t>Geringere Prozyklizität durch eine am Vorsichtsprinzip orientierte Bilanzierung</t>
-  </si>
-  <si>
-    <t>VIERTES KAPITEL Finanzpolitik: Handlungsbedarf in der kurzen und langen Frist</t>
-  </si>
-  <si>
-    <t>1. Nahezu ausgeglichene öffentliche Haushalte trotz konjunktureller Abschwächung</t>
-  </si>
-  <si>
-    <t>Entwicklung der staatlichen Ausgaben</t>
-  </si>
-  <si>
-    <t>Entwicklung der staatlichen Einnahmen</t>
-  </si>
-  <si>
-    <t>Kassenmäßiges Steueraufkommen</t>
-  </si>
-  <si>
-    <t>Zur steuerlichen Behandlung von Fahrten zwischen Wohnung und Arbeitsstätte</t>
-  </si>
-  <si>
-    <t>2. Haushalte der Gebietskörperschaften und der Sozialversicherung: Defizite nur beim Bund</t>
-  </si>
-  <si>
-    <t>Einnahmen und Ausgaben des Bundes</t>
-  </si>
-  <si>
-    <t>Einnahmen und Ausgaben der Länder, Gemeinden und Sozialversicherung</t>
-  </si>
-  <si>
-    <t>3. Finanzpolitik im Zeichen drohender Haushaltsrisiken</t>
-  </si>
-  <si>
-    <t>4. Föderalismuskommission II: Trübe Aussichten trotz überzeugender Konzepte</t>
-  </si>
-  <si>
-    <t>1. Eine kurze Chronologie der Reformpläne</t>
-  </si>
-  <si>
-    <t>2. Erbschaftsteuerreform und Verschonungsabschläge: Rechtfertigungen, Missverständnisse, Fakten</t>
-  </si>
-  <si>
-    <t>3. Pro und Contra Erbschaftsbesteuerung</t>
-  </si>
-  <si>
-    <t>4. Fazit</t>
-  </si>
-  <si>
-    <t>1. Abgeltungsteuer, Unternehmensbesteuerung und Steuervereinfachung</t>
-  </si>
-  <si>
-    <t>2. Günstigerprüfung: Unsystematische Grenzbelastungen und ungünstige Ergebnisse</t>
-  </si>
-  <si>
-    <t>3. Vermeidung der Abgeltungsteuer durch Teileinkünftebesteuerung</t>
-  </si>
-  <si>
-    <t>IV. Haushaltskonsolidierung, Steuersenkungen, Konjunkturprogramme: Was tun?</t>
-  </si>
-  <si>
-    <t>1. Finanzpolitik in längerfristiger Perspektive</t>
-  </si>
-  <si>
-    <t>Was wird aus der Haushaltskonsolidierung?</t>
-  </si>
-  <si>
-    <t>Sollten die gesamtwirtschaftliche Steuerquote und Abgabenquote reduziert werden?</t>
-  </si>
-  <si>
-    <t>2. Finanzpolitik in der kurzen Frist</t>
-  </si>
-  <si>
-    <t>Vorteile einer Glättung von konjunkturellen Schwankungen</t>
-  </si>
-  <si>
-    <t>Zur Wirksamkeit antizyklischer finanzpolitischer Maßnahmen</t>
-  </si>
-  <si>
-    <t>Automatische Stabilisatoren</t>
-  </si>
-  <si>
-    <t>Diskretionäre antizyklische Finanzpolitik</t>
-  </si>
-  <si>
-    <t>3. Konjunkturgerechte Wachstumspolitik: Der schwierige Spagat zwischen Haushaltskonsolidierung, Konjunkturstabilisierung und Wachstumspolitik</t>
-  </si>
-  <si>
-    <t>Schwierigkeiten und Grundzüge einer konjunkturgerechten Wachstumspolitik</t>
-  </si>
-  <si>
-    <t>Finanzpolitische Maßnahmen zur Stärkung des Potenzialwachstums</t>
-  </si>
-  <si>
-    <t>Wachstumspolitik über einnahmeseitige Maßnahmen</t>
-  </si>
-  <si>
-    <t>Wachstumspolitik über ausgabenseitige Maßnahmen</t>
-  </si>
-  <si>
-    <t>Weitere wachstumspolitische Maßnahmen</t>
-  </si>
-  <si>
-    <t>Maßnahmen für ein konjunkturgerechtes Wachstumspaket</t>
-  </si>
-  <si>
-    <t>Zum Maßnahmenpaket der Bundesregierung</t>
-  </si>
-  <si>
-    <t>FÜNFTES KAPITEL Arbeitsmarkt: Anhaltende Belebung – Ungleiche Verteilung der Chancen</t>
-  </si>
-  <si>
-    <t>1. Erneut positive Beschäftigungsentwicklung</t>
-  </si>
-  <si>
-    <t>2. Rückgang der Arbeitslosigkeit setzt sich fort</t>
-  </si>
-  <si>
-    <t>Dauer und Betroffenheit von Arbeitslosigkeit im Jahr 2007</t>
-  </si>
-  <si>
-    <t>3. Grundsicherung für Arbeitsuchende: Hohe Hilfequote trotz Rückgangs der erwerbsfähigen Hilfebedürftigen</t>
-  </si>
-  <si>
-    <t>4. Langzeitarbeitslosigkeit: Anhaltendes Problem trotz deutlichen Rückgangs</t>
-  </si>
-  <si>
-    <t>5. Berufsausbildungsstellenmarkt: Stellenüberhang dank guter Konjunktur und demografischer Faktoren</t>
-  </si>
-  <si>
-    <t>6. Arbeitsmarktreformen oder zyklische Belebung: Eine aktualisierte Betrachtung</t>
-  </si>
-  <si>
-    <t>Deutlicher Rückgang der inflationsstabilen Arbeitslosenquote</t>
-  </si>
-  <si>
-    <t>Vergleich der Aufschwungphasen</t>
-  </si>
-  <si>
-    <t>Stärkere Zuwächse bei der Beschäftigung und markanter Rückgang der Arbeitslosigkeit</t>
-  </si>
-  <si>
-    <t>Erstmals deutliche Verbesserung auch in Ostdeutschland</t>
-  </si>
-  <si>
-    <t>Erwerbspersonenpotenzial</t>
-  </si>
-  <si>
-    <t>Fazit</t>
-  </si>
-  <si>
-    <t>I.       Die deutsche Wirtschaft im Sog der Finanzkrise</t>
-  </si>
-  <si>
-    <t>II.      Stabilisierung der Finanzmärkte</t>
-  </si>
-  <si>
-    <t>II.   Die deutsche Volkswirtschaft im Abschwung</t>
-  </si>
-  <si>
-    <t>I.       Die unerwartete Ausbreitung der Krise</t>
-  </si>
-  <si>
-    <t>II.      Reaktion der Zentralbanken</t>
-  </si>
-  <si>
-    <t>I.       Öffentliche Haushalte: Finanzpolitik in unsicheren Zeiten</t>
-  </si>
-  <si>
-    <t>II.      Reform der Erbschaftsteuer: Bedienung von Partikularinteressen</t>
-  </si>
-  <si>
-    <t>I.      Die Lage im Jahr 2008: Nochmals gute Nachrichten vom Arbeitsmarkt</t>
-  </si>
-  <si>
-    <t>II.      Tariflohnpolitik: Ende der Lohnzurückhaltung</t>
-  </si>
-  <si>
-    <t>I.       Weltwirtschaftliches Umfeld</t>
-  </si>
-  <si>
-    <t>III.     Abgeltungsteuer: Nach der Reform ist vor der Reform</t>
-  </si>
-  <si>
-    <t>III. Arbeitsmarktpolitik</t>
-  </si>
-  <si>
-    <t>1. Bundesagentur für Arbeit und aktive Arbeitsmarktpolitik</t>
-  </si>
-  <si>
-    <t>2. Arbeitnehmer-Entsendegesetz und Mindestarbeitsbedingungengesetz</t>
-  </si>
-  <si>
-    <t>3. Mitarbeiterkapitalbeteiligung</t>
-  </si>
-  <si>
-    <t>IV. Atypische Beschäftigungsverhältnisse – Zweiklassengesellschaft am Arbeitsmarkt?</t>
-  </si>
-  <si>
-    <t>1. Zunahme atypischer Beschäftigung und Rückgang des Normalarbeitsverhältn</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. Konjunkturelle Lage</t>
+  </si>
+  <si>
+    <t>II. Konjunktur außerhalb des Euro-Raums</t>
+  </si>
+  <si>
+    <t>II. Die Entwicklung im Einzelnen</t>
+  </si>
+  <si>
+    <t>1. Überblick</t>
+  </si>
+  <si>
+    <t>3. Ausblick</t>
+  </si>
+  <si>
+    <t>III. Mittelfristprojektion</t>
+  </si>
+  <si>
+    <t>Erstes Kapitel:Vor wichtigen wirtschaftspolitischen Weichenstellungen</t>
+  </si>
+  <si>
+    <t>I. Vor wichtigen wirtschaftspolitischen Weichenstellungen</t>
+  </si>
+  <si>
+    <t> Globaler Multilateralismus und europäische Integration</t>
+  </si>
+  <si>
+    <t> Demografischer Wandel und Digitalisierung</t>
+  </si>
+  <si>
+    <t>II. Globalisierung: Protektionismus verhindern, multilateral handeln</t>
+  </si>
+  <si>
+    <t>1. Weitere Liberalisierung statt Protektionismus</t>
+  </si>
+  <si>
+    <t>2. Den internationalen Steuerwettbewerb annehmen</t>
+  </si>
+  <si>
+    <t>3. Effizienter Klimaschutz durch marktbasierte Lösungen</t>
+  </si>
+  <si>
+    <t>III. Europa: Brexit abfedern, EU und Euro-Raum stärken</t>
+  </si>
+  <si>
+    <t>1. Verwerfungen durch den Brexit abwenden</t>
+  </si>
+  <si>
+    <t> „No Brexit“, statt „No deal“</t>
+  </si>
+  <si>
+    <t> Umfangreiches Freihandelsabkommen als Minimallösung</t>
+  </si>
+  <si>
+    <t>2. Die EU auf ihren Mehrwert fokussieren</t>
+  </si>
+  <si>
+    <t> Stärkung des Subsidiaritätsprinzips</t>
+  </si>
+  <si>
+    <t> Kohäsions- und Strukturfonds effektiver einsetzen</t>
+  </si>
+  <si>
+    <t>3. Stabilität für den Euro-Raum</t>
+  </si>
+  <si>
+    <t> Fiskal- und Geldpolitik: Spielräume für Krisenzeiten schaffen</t>
+  </si>
+  <si>
+    <t> Stabilisierung im Euro-Raum</t>
+  </si>
+  <si>
+    <t> Europäische Banken- und Kapitalmarktunion vorantreiben</t>
+  </si>
+  <si>
+    <t>IV. Demografischer Wandel: Dringender Handlungsbedarf</t>
+  </si>
+  <si>
+    <t>1. Erwerbsmigration gegen Fachkräfteengpässe</t>
+  </si>
+  <si>
+    <t> Arbeitskräftepotenzial nutzen und erhöhen</t>
+  </si>
+  <si>
+    <t> Zuwanderung von Fachkräften weiter vorantreiben</t>
+  </si>
+  <si>
+    <t>2. Demografiefeste Alterssicherung vorsehen</t>
+  </si>
+  <si>
+    <t>3. Wohnimmobilien und Eigentumserwerb</t>
+  </si>
+  <si>
+    <t> Angebot von Wohnimmobilien ausweiten</t>
+  </si>
+  <si>
+    <t> Private Vermögensbildung flexibilisieren</t>
+  </si>
+  <si>
+    <t>4. Stärkung des Wettbewerbs im Gesundheitswesen</t>
+  </si>
+  <si>
+    <t>V. Digitalisierung: Rahmenbedingungen schaffen, Chancen ergreifen</t>
+  </si>
+  <si>
+    <t>1. Wohlfahrtssteigernder technologischer Fortschritt</t>
+  </si>
+  <si>
+    <t>2. Moderne digitale Infrastruktur und Verwaltung</t>
+  </si>
+  <si>
+    <t>3. Zurückhaltung bei industriepolitischen Eingriffen</t>
+  </si>
+  <si>
+    <t>Zweites Kapitel:Internationale Konjunktur: NachlassendesExpansionstempo bei hohen Risiken</t>
+  </si>
+  <si>
+    <t>I. Weltwirtschaft: Aufschwung hält an – Risiken sind hoch</t>
+  </si>
+  <si>
+    <t> Aufschwung der Weltwirtschaft hält noch an</t>
+  </si>
+  <si>
+    <t> Wirtschaftliche Stabilität der Schwellenländer</t>
+  </si>
+  <si>
+    <t>2. Chancen und Risiken</t>
+  </si>
+  <si>
+    <t>1. Vereinigte Staaten: Aufschwung schreitet weiter fort</t>
+  </si>
+  <si>
+    <t>2. China: Handelsstreit verschärft Zielkonflikte</t>
+  </si>
+  <si>
+    <t>3. Japan: Kapazitäten zunehmend ausgelastet</t>
+  </si>
+  <si>
+    <t>4. Vereinigtes Königreich: Damoklesschwert Brexit</t>
+  </si>
+  <si>
+    <t>III. Euro-Raum: Weniger schwungvoll als im Vorjahr</t>
+  </si>
+  <si>
+    <t> Geringere Impulse vom Außenhandel</t>
+  </si>
+  <si>
+    <t> Geld- und Fiskalpolitik weiter expansiv</t>
+  </si>
+  <si>
+    <t>2. Aufschwung im Euro-Raum fortgeschritten</t>
+  </si>
+  <si>
+    <t> Überauslastung möglicherweise größer als gedacht</t>
+  </si>
+  <si>
+    <t> Langsam steigender Preisdruck</t>
+  </si>
+  <si>
+    <t> Dynamische Lohn- und Beschäftigungsentwicklung</t>
+  </si>
+  <si>
+    <t>Drittes Kapitel:Deutsche Konjunktur: Aufschwung stößt an Grenzen</t>
+  </si>
+  <si>
+    <t>I. Expansionstempo sinkt</t>
+  </si>
+  <si>
+    <t>1. Angebotsseitige Beschränkungen nehmen zu</t>
+  </si>
+  <si>
+    <t>2. Beschäftigungsaufbau lebt von Zuwanderung</t>
+  </si>
+  <si>
+    <t>3. Bedeutung der Exporte nach wie vor hoch</t>
+  </si>
+  <si>
+    <t>4. Ungünstigere Rahmenbedingungen</t>
+  </si>
+  <si>
+    <t>5. Allmählicher Wachstumsrückgang erwartet</t>
+  </si>
+  <si>
+    <t>1. Verwendungskomponenten</t>
+  </si>
+  <si>
+    <t> Außenhandel weniger dynamisch</t>
+  </si>
+  <si>
+    <t> Investitionen bleiben kräftig</t>
+  </si>
+  <si>
+    <t> Konsum expandiert robust</t>
+  </si>
+  <si>
+    <t>2. Verbraucherpreisinflation über 2 Prozent</t>
+  </si>
+  <si>
+    <t>3. Dynamik am Arbeitsmarkt lässt etwas nach</t>
+  </si>
+  <si>
+    <t>4. Staatliche Überschüsse verleiten zu expansiver Ausgabenpolitik</t>
+  </si>
+  <si>
+    <t>Viertes Kapitel:Geld- und Fiskalpolitik im Euro-Raum: Normalisierung undStabilisierung</t>
+  </si>
+  <si>
+    <t>I. Den Euro-Raum stabilisieren</t>
+  </si>
+  <si>
+    <t>II. Aus der lockeren Geldpolitik aussteigen</t>
+  </si>
+  <si>
+    <t>1. Geldpolitische Maßnahmen 2018</t>
+  </si>
+  <si>
+    <t>2. Notwendige Normalisierung der Geldpolitik</t>
+  </si>
+  <si>
+    <t> Forward Guidance zu Ratsprognose ausbauen</t>
+  </si>
+  <si>
+    <t> Reihenfolge der Normalisierungsmaßnahmen</t>
+  </si>
+  <si>
+    <t> Symmetrische Reaktion und rechtzeitige Normalisierung</t>
+  </si>
+  <si>
+    <t> Risiken einer verspäteten Normalisierung</t>
+  </si>
+  <si>
+    <t>3. Die Notenbankbilanz wieder reduzieren</t>
+  </si>
+  <si>
+    <t> Bisheriges Vorgehen der Federal Reserve</t>
+  </si>
+  <si>
+    <t> Bilanzhöhe als Instrument der Geldpolitik</t>
+  </si>
+  <si>
+    <t> Rolle der Bilanzhöhe für Finanzstabilität und Unabhängigkeit</t>
+  </si>
+  <si>
+    <t> Bilanzhöhe, Überschussreserven und operationelles Regime</t>
+  </si>
+  <si>
+    <t>III. Neue Herausforderungen</t>
+  </si>
+  <si>
+    <t>1. Bilanzrisiken und Unabhängigkeit der Notenbanken</t>
+  </si>
+  <si>
+    <t> Vorsorge für Notenbankbilanzrisiken</t>
+  </si>
+  <si>
+    <t> Problematische Vorschläge zur Schuldenreduktion zulasten\nder Notenbankbilanz</t>
+  </si>
+  <si>
+    <t> Geldpolitik bei negativem Eigenkapital der Notenbank</t>
+  </si>
+  <si>
+    <t>2. Kryptowährungen: Wettbewerb in der Geldschöpfung</t>
+  </si>
+  <si>
+    <t>IV. Stabilisierungspolitik in einer heterogenen Währungsunion</t>
+  </si>
+  <si>
+    <t>1. Rolle von Geld- und Fiskalpolitik</t>
+  </si>
+  <si>
+    <t>2. Ausmaß an Heterogenität</t>
+  </si>
+  <si>
+    <t>3. Möglichkeiten nationaler Stabilisierungspolitik</t>
+  </si>
+  <si>
+    <t>V. Zur Fiskalkapazität für den Euro-Raum</t>
+  </si>
+  <si>
+    <t>1. Konkrete Vorschläge für eine Fiskalkapazität</t>
+  </si>
+  <si>
+    <t> Temporäre oder längerfristige Nettotransfers</t>
+  </si>
+  <si>
+    <t> Antizyklisch wirkende zwischenstaatliche Transfers</t>
+  </si>
+  <si>
+    <t>2. Transfers, Risikoteilung und Fehlanreize</t>
+  </si>
+  <si>
+    <t>Fünftes Kapitel:Banken- und Kapitalmarktunion entschiedener vorantreiben</t>
+  </si>
+  <si>
+    <t>I. Verhaltene Fortschritte bei der Banken- und Kapitalmarktunion</t>
+  </si>
+  <si>
+    <t>II. Banken- und Kapitalmarkt zehn Jahre nach der Finanzkrise</t>
+  </si>
+  <si>
+    <t>III. Vertiefung der Bankenunion</t>
+  </si>
+  <si>
+    <t>1. Aufhebung der regulatorischen Privilegierung von Forderungen gegenüber\nStaaten</t>
+  </si>
+  <si>
+    <t> Vorschläge zur Regulierung von Forderungen gegenüber Staaten</t>
+  </si>
+  <si>
+    <t>2. Fiskalische Letztsicherung für den Abwicklungsfonds</t>
+  </si>
+  <si>
+    <t>3. Diskussion über eine gemeinsame europäische Einlagensicherung</t>
+  </si>
+  <si>
+    <t>4. Risikoreduzierung und Risikoteilung</t>
+  </si>
+  <si>
+    <t>IV. Hürden im europäischen Finanzmarkt</t>
+  </si>
+  <si>
+    <t>1. Geringe Risikoteilung im Euro-Raum</t>
+  </si>
+  <si>
+    <t>2. Hürden für den gemeinsamen Bankenmarkt schrittweise reduzieren</t>
+  </si>
+  <si>
+    <t>3. Impulse für die europäische Kapitalmarktunion</t>
+  </si>
+  <si>
+    <t> Hürden für Kapitalmarktfinanzierungen in Europa</t>
+  </si>
+  <si>
+    <t> Beseitigung von Hürden durch die Kapitalmarktunion</t>
+  </si>
+  <si>
+    <t>Sechstes Kapitel:Dem internationalen Steuerwettbewerb begegnen</t>
+  </si>
+  <si>
+    <t>I. Motivation</t>
+  </si>
+  <si>
+    <t>II. Der Tax Cuts and Jobs Act und seine Auswirkungen</t>
+  </si>
+  <si>
+    <t>1. Wesentliche Elemente der Steuerreform</t>
+  </si>
+  <si>
+    <t> Senkungen der Steuersätze und Verbreiterung der\nBemessungsgrundlagen</t>
+  </si>
+  <si>
+    <t> Finanzierungsneutralität und Anreize für Investitionen</t>
+  </si>
+  <si>
+    <t> Internationale Besteuerung</t>
+  </si>
+  <si>
+    <t>2. Makroökonomische Auswirkungen der Steuerreform</t>
+  </si>
+  <si>
+    <t> Auswirkungen auf die Vereinigten Staaten</t>
+  </si>
+  <si>
+    <t> Auswirkungen auf andere Volkswirtschaften</t>
+  </si>
+  <si>
+    <t>III. Deutschland im internationalen Steuerwettbewerb</t>
+  </si>
+  <si>
+    <t>1. Gewinnsteuersätze international im Abwärtstrend</t>
+  </si>
+  <si>
+    <t>2. Diskriminierende Besteuerung von mobilen und immobilen Aktivitäten</t>
+  </si>
+  <si>
+    <t>IV. Herausforderungen bei der internationalen Besteuerung</t>
+  </si>
+  <si>
+    <t>1. Prinzipien zur Festlegung der Besteuerungsrechte</t>
+  </si>
+  <si>
+    <t>2. Besteuerung der Digitalwirtschaft als Herausforderung</t>
+  </si>
+  <si>
+    <t>3. Alternative Harmonisierungsbestrebungen</t>
+  </si>
+  <si>
+    <t>V. Steuerpolitische Optionen zur Förderung privater Investitionen</t>
+  </si>
+  <si>
+    <t>1. Moderate Senkung der Steuerbelastung</t>
+  </si>
+  <si>
+    <t>2. Abbau von Verzerrungen</t>
+  </si>
+  <si>
+    <t>Siebtes Kapitel:Keine schnellen Lösungen in der Wohnungspolitik</t>
+  </si>
+  <si>
+    <t>I. Herausforderung Immobilienmarkt</t>
+  </si>
+  <si>
+    <t>II. Demografische Einflüsse auf Immobilienpreise und Mieten</t>
+  </si>
+  <si>
+    <t>III. Überhitzung am Immobilienmarkt?</t>
+  </si>
+  <si>
+    <t>1. Hinweise auf Preisübertreibungen in Großstädten</t>
+  </si>
+  <si>
+    <t>2. Keine übermäßige Angebotsausweitung</t>
+  </si>
+  <si>
+    <t>3. Implikationen für das Finanzsystem</t>
+  </si>
+  <si>
+    <t>4. Makroprudenzieller Handlungsbedarf nimmt zu</t>
+  </si>
+  <si>
+    <t>IV. Sozial- und wohnungsbaupolitische Dimension</t>
+  </si>
+  <si>
+    <t>1. Schutz der Mieter vor Mieterhöhungen</t>
+  </si>
+  <si>
+    <t> Mietpreisbremse: Symptomtherapie mit Nebenwirkungen</t>
+  </si>
+  <si>
+    <t>2. Wohngeld: Sinnvolle Förderung für Haushalte mit niedrigem Einkommen</t>
+  </si>
+  <si>
+    <t>3. Sozialer Wohnungsbau: Fehler der Vergangenheit vermeiden</t>
+  </si>
+  <si>
+    <t>4. Wie lässt sich generell das Angebot an Wohnungen ausweiten?</t>
+  </si>
+  <si>
+    <t> Reform der Grundsteuer</t>
+  </si>
+  <si>
+    <t> Abbau von Regulierungen</t>
+  </si>
+  <si>
+    <t> Zweckentfremdungsverbote</t>
+  </si>
+  <si>
+    <t>5. Förderung des Erwerbs von Immobilien für private Haushalte</t>
+  </si>
+  <si>
+    <t> Reform der Grunderwerbsteuer angezeigt</t>
+  </si>
+  <si>
+    <t> Bestehende steuerliche Investitionsanreize für Wohnimmobilien</t>
+  </si>
+  <si>
+    <t> Unsystematische Förderung durch das Baukindergeld</t>
+  </si>
+  <si>
+    <t> Bestellerprinzip beim Immobilienkauf</t>
+  </si>
+  <si>
+    <t>6. Förderung peripherer Immobilienmärkte</t>
+  </si>
+  <si>
+    <t>Achtes Kapitel:Über Wettbewerb mehr Effizienz im Gesundheitswesen</t>
+  </si>
+  <si>
+    <t>I. Gesundheitswesen vor großen Veränderungen</t>
+  </si>
+  <si>
+    <t>II. Demografischer Wandel als Kernherausforderung</t>
+  </si>
+  <si>
+    <t>1. Wachsende Bedeutung des Gesundheitswesens</t>
+  </si>
+  <si>
+    <t> Dynamische Entwicklung der GKV</t>
+  </si>
+  <si>
+    <t> Zukünftige finanzielle Belastungen</t>
+  </si>
+  <si>
+    <t>2. Kein effizienter Mitteleinsatz</t>
+  </si>
+  <si>
+    <t> Eigenschaften des deutschen Gesundheitswesens</t>
+  </si>
+  <si>
+    <t> Bestehende Überkapazitäten</t>
+  </si>
+  <si>
+    <t>3. Zuspitzung der Fachkräfteengpässe</t>
+  </si>
+  <si>
+    <t>III. Finanzierung sichern, Überkapazitäten abbauen</t>
+  </si>
+  <si>
+    <t>1. Einnahmesichernde Maßnahmen</t>
+  </si>
+  <si>
+    <t> Bürgerpauschale als Zielvorstellung</t>
+  </si>
+  <si>
+    <t> Zusatzbeiträge beleben den Kassenwettbewerb</t>
+  </si>
+  <si>
+    <t>2. Wettbewerbspotenziale im stationären Sektor</t>
+  </si>
+  <si>
+    <t> Effizienzmängel erfordern stärkere Wettbewerbsorientierung</t>
+  </si>
+  <si>
+    <t> Krankenhausfinanzierung aus einer Hand ermöglichen</t>
+  </si>
+  <si>
+    <t> Strukturbereinigung im Krankenhaussektor vorantreiben</t>
+  </si>
+  <si>
+    <t> Selektivverträge im stationären Sektor stärker zulassen</t>
+  </si>
+  <si>
+    <t> Sektorenübergreifende Versorgung ausbauen</t>
+  </si>
+  <si>
+    <t>IV. Unterversorgung zuvorkommen</t>
+  </si>
+  <si>
+    <t> Arbeitskräftepotenzial im Gesundheitsbereich erhöhen</t>
+  </si>
+  <si>
+    <t> Attraktivität der Gesundheitsberufe steigern</t>
+  </si>
+  <si>
+    <t>V. Digitalisierung als Innovationsmotor</t>
+  </si>
+  <si>
+    <t> Effizientere Strukturen durch Digitalisierung</t>
+  </si>
+  <si>
+    <t> Berechtigte Bedenken berücksichtigen</t>
+  </si>
+  <si>
+    <t> Wandel annehmen, nicht behindern</t>
   </si>
 </sst>
 </file>
@@ -857,17 +938,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
   </cols>
@@ -888,2169 +969,2564 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
       </c>
       <c r="D45">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D48">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D50">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D51">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D52">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D53">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D57">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D58">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D59">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
       </c>
       <c r="D60">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
       </c>
       <c r="D61">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D63">
-        <v>122</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D64">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D65">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D66">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
       </c>
       <c r="D67">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D68">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D69">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D74">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D75">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D76">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D77">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D78">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D79">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D80">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D81">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D82">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D83">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D84">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D86">
-        <v>164</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
       </c>
       <c r="D87">
-        <v>164</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D88">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D89">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D90">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D92">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D93">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D94">
-        <v>173</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D96">
-        <v>176</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D97">
-        <v>177</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D98">
-        <v>179</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D99">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>193</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
       </c>
       <c r="D102">
-        <v>194</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>194</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D104">
-        <v>195</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D105">
-        <v>197</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D106">
-        <v>198</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D107">
-        <v>202</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B108" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D108">
-        <v>204</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D109">
-        <v>204</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B110" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D110">
-        <v>205</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D111">
-        <v>207</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B112" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D112">
-        <v>211</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B113" t="s">
-        <v>149</v>
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>115</v>
       </c>
       <c r="D113">
-        <v>215</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B114" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D114">
-        <v>215</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>219</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="D116">
-        <v>223</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>227</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>120</v>
       </c>
       <c r="D118">
-        <v>228</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D119">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D120">
-        <v>231</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D121">
-        <v>234</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D122">
-        <v>236</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B123" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="C123" t="s">
+        <v>125</v>
       </c>
       <c r="D123">
-        <v>237</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C124" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D124">
-        <v>238</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B125" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>238</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D126">
-        <v>240</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D127">
-        <v>243</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="D128">
-        <v>243</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B129" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D129">
-        <v>245</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B130" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D130">
-        <v>245</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B131" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D131">
-        <v>247</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B132" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="D132">
-        <v>248</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B133" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D133">
-        <v>249</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B134" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D134">
-        <v>250</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>251</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="D136">
-        <v>254</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="D137">
-        <v>256</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="D138">
-        <v>256</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D139">
-        <v>257</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="D140">
-        <v>260</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="B141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>143</v>
       </c>
       <c r="D141">
-        <v>265</v>
+        <v>342</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="C142" t="s">
+        <v>144</v>
       </c>
       <c r="D142">
-        <v>267</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="D143">
-        <v>268</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D144">
-        <v>271</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D145">
-        <v>274</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D146">
-        <v>277</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D147">
-        <v>278</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B148" t="s">
+        <v>145</v>
+      </c>
+      <c r="C148" t="s">
         <v>150</v>
       </c>
-      <c r="C148" t="s">
-        <v>135</v>
-      </c>
       <c r="D148">
-        <v>281</v>
+        <v>361</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C149" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D149">
-        <v>284</v>
+        <v>361</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C150" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D150">
-        <v>284</v>
+        <v>366</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D151">
-        <v>285</v>
+        <v>367</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C152" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D152">
-        <v>286</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B153" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D153">
-        <v>290</v>
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C154" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D154">
-        <v>292</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B155" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C155" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D155">
-        <v>293</v>
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B156" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="C156" t="s">
+        <v>158</v>
       </c>
       <c r="D156">
-        <v>293</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="C157" t="s">
+        <v>159</v>
       </c>
       <c r="D157">
-        <v>296</v>
+        <v>376</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="D158">
-        <v>296</v>
+        <v>384</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="D159">
-        <v>298</v>
+        <v>386</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="D160">
-        <v>299</v>
+        <v>387</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="C161" t="s">
+        <v>163</v>
       </c>
       <c r="D161">
-        <v>300</v>
+        <v>387</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>159</v>
+        <v>164</v>
+      </c>
+      <c r="D162">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>165</v>
+      </c>
+      <c r="D163">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>160</v>
+      </c>
+      <c r="B166" t="s">
+        <v>162</v>
+      </c>
+      <c r="C166" t="s">
+        <v>168</v>
+      </c>
+      <c r="D166">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167" t="s">
+        <v>162</v>
+      </c>
+      <c r="C167" t="s">
+        <v>169</v>
+      </c>
+      <c r="D167">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>160</v>
+      </c>
+      <c r="B169" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" t="s">
+        <v>171</v>
+      </c>
+      <c r="D169">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>160</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>160</v>
+      </c>
+      <c r="B171" t="s">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>160</v>
+      </c>
+      <c r="B172" t="s">
+        <v>170</v>
+      </c>
+      <c r="C172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>160</v>
+      </c>
+      <c r="B173" t="s">
+        <v>170</v>
+      </c>
+      <c r="C173" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>160</v>
+      </c>
+      <c r="B174" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174" t="s">
+        <v>176</v>
+      </c>
+      <c r="D174">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" t="s">
+        <v>177</v>
+      </c>
+      <c r="D175">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>160</v>
+      </c>
+      <c r="B176" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" t="s">
+        <v>178</v>
+      </c>
+      <c r="D176">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>160</v>
+      </c>
+      <c r="B177" t="s">
+        <v>170</v>
+      </c>
+      <c r="C177" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>160</v>
+      </c>
+      <c r="B178" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>160</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>160</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>160</v>
+      </c>
+      <c r="B181" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>160</v>
+      </c>
+      <c r="B182" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182" t="s">
+        <v>184</v>
+      </c>
+      <c r="D182">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>160</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" t="s">
+        <v>185</v>
+      </c>
+      <c r="D183">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>160</v>
+      </c>
+      <c r="B184" t="s">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>186</v>
+      </c>
+      <c r="D184">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
